--- a/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
+++ b/InputData/bldgs/BFoCSbQL/BAU Frac of Components Sold by Quality Lvl.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\BFoCSbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="15" windowWidth="19065" windowHeight="13860"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="USA Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Canada Data" sheetId="5" r:id="rId3"/>
-    <sheet name="BFoCSbQL-residential" sheetId="3" r:id="rId4"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
+    <sheet name="BFoCSbQL-urban-residential" sheetId="3" r:id="rId3"/>
+    <sheet name="BFoCSbQL-rural-residential" sheetId="5" r:id="rId4"/>
     <sheet name="BFoCSbQL-commercial" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
   <si>
     <t>Source:</t>
   </si>
@@ -226,9 +226,6 @@
     <t>heating</t>
   </si>
   <si>
-    <t>Building component</t>
-  </si>
-  <si>
     <t>envelope</t>
   </si>
   <si>
@@ -259,68 +256,26 @@
     <t>See next tab for table numbers and links</t>
   </si>
   <si>
-    <t>http://www.nrcan.gc.ca/sites/oee.nrcan.gc.ca/files/pdf/publications/statistics/cama12/cama12.pdf</t>
-  </si>
-  <si>
-    <t>75% of Canadian homes use CFLs</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/sites/default/files/asset/document/Regional%20Efficiency%20Program%20Market%20Status%20Updates.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appliances: </t>
-  </si>
-  <si>
-    <t>Refriderators</t>
-  </si>
-  <si>
-    <t>Dishwasher</t>
-  </si>
-  <si>
-    <t>Clothes washer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Star qualified </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appliance </t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Natural Resources Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Energy Consumption of Major Household Appliancs Shipped in Canada </t>
-  </si>
-  <si>
-    <t>Trends for 1990-2010</t>
-  </si>
-  <si>
-    <t>For Canada model</t>
-  </si>
-  <si>
-    <t>Canadian data were only available for household appliances.  Other components use U.S. data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Canadaian info not used: </t>
-  </si>
-  <si>
-    <t>All components except residential appliances</t>
-  </si>
-  <si>
-    <t>Residential appliances</t>
+    <t>For the U.S., we use the same fractions for urban residential and rural residential.</t>
+  </si>
+  <si>
+    <t>Dimensionless fraction of total components</t>
+  </si>
+  <si>
+    <t>This variable captures what BAU fraction of new building components qualify</t>
+  </si>
+  <si>
+    <t>for energy efficient rebates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,14 +303,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -394,21 +341,16 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,20 +377,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -457,6 +391,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +442,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -749,11 +686,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" customWidth="1"/>
@@ -768,117 +707,63 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>94</v>
+      <c r="B3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
+      <c r="B4" s="2">
+        <v>2012</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2012</v>
+      <c r="B5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="20">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="16"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -886,9 +771,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
@@ -915,7 +802,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,144 +1416,34 @@
     <hyperlink ref="F24" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="17">
-        <v>0.59</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="17">
-        <v>0.79</v>
-      </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="17">
-        <v>0.66</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="19">
-        <f>AVERAGE(B3:B5)</f>
-        <v>0.68</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,11 +1451,11 @@
         <v>66</v>
       </c>
       <c r="B2" s="11">
-        <f t="shared" ref="B2:B7" si="0">1-C2</f>
+        <f>1-C2</f>
         <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
-        <f>SUMPRODUCT('USA Data'!C8:C11,'USA Data'!D8:D11)/SUM('USA Data'!C8:C11)</f>
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
         <v>0.59781931464174454</v>
       </c>
     </row>
@@ -1687,17 +1464,17 @@
         <v>65</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
         <v>0.73</v>
       </c>
       <c r="C3">
-        <f>'USA Data'!D12</f>
+        <f>Data!D12</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1717,7 +1494,7 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <f>'USA Data'!D15</f>
+        <f>Data!D15</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1727,11 +1504,11 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>0.31999999999999995</v>
+        <v>0.32982758620689656</v>
       </c>
       <c r="C6" s="11">
-        <f>'Canada Data'!B7</f>
-        <v>0.68</v>
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1743,49 +1520,44 @@
         <v>0.48876582108507738</v>
       </c>
       <c r="C7" s="11">
-        <f>SUMPRODUCT('USA Data'!C27:C31,'USA Data'!D27:D31)/SUM('USA Data'!C27:C31)</f>
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
         <v>0.51123417891492262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3 B5 B4 B7:C7 B6" formulaRange="1"/>
+    <ignoredError sqref="B2:C3 B5:C7 B4" formulaRange="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>67</v>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,11 +1565,11 @@
         <v>66</v>
       </c>
       <c r="B2" s="11">
-        <f t="shared" ref="B2:B7" si="0">1-C2</f>
+        <f>1-C2</f>
         <v>0.40218068535825546</v>
       </c>
       <c r="C2" s="11">
-        <f>SUMPRODUCT('USA Data'!C8:C11,'USA Data'!D8:D11)/SUM('USA Data'!C8:C11)</f>
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
         <v>0.59781931464174454</v>
       </c>
     </row>
@@ -1806,17 +1578,17 @@
         <v>65</v>
       </c>
       <c r="B3" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
         <v>0.73</v>
       </c>
       <c r="C3">
-        <f>'USA Data'!D12</f>
+        <f>Data!D12</f>
         <v>0.27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="15">
         <f t="shared" si="0"/>
@@ -1836,7 +1608,7 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <f>'USA Data'!D15</f>
+        <f>Data!D15</f>
         <v>0.2</v>
       </c>
     </row>
@@ -1846,11 +1618,11 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>0.53711053089643168</v>
+        <v>0.32982758620689656</v>
       </c>
       <c r="C6" s="11">
-        <f>SUMPRODUCT('USA Data'!C19:C26,'USA Data'!D19:D26)/SUM('USA Data'!C19:C26)</f>
-        <v>0.46288946910356832</v>
+        <f>SUMPRODUCT(Data!C16:C18,Data!D16:D18)/SUM(Data!C16:C18)</f>
+        <v>0.67017241379310344</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,23 +1631,129 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>0.30697620874904064</v>
+        <v>0.48876582108507738</v>
       </c>
       <c r="C7" s="11">
-        <f>SUMPRODUCT('USA Data'!C32:C38,'USA Data'!D32:D38)/SUM('USA Data'!C32:C38)</f>
-        <v>0.69302379125095936</v>
+        <f>SUMPRODUCT(Data!C27:C31,Data!D27:D31)/SUM(Data!C27:C31)</f>
+        <v>0.51123417891492262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="11">
+        <f>1-C2</f>
+        <v>0.40218068535825546</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMPRODUCT(Data!C8:C11,Data!D8:D11)/SUM(Data!C8:C11)</f>
+        <v>0.59781931464174454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" ref="B3:B7" si="0">1-C3</f>
+        <v>0.73</v>
+      </c>
+      <c r="C3">
+        <f>Data!D12</f>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56609034267912772</v>
+      </c>
+      <c r="C4" s="15">
+        <f>AVERAGE(C2:C3)</f>
+        <v>0.43390965732087228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C5">
+        <f>Data!D15</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>0.53711053089643168</v>
+      </c>
+      <c r="C6" s="11">
+        <f>SUMPRODUCT(Data!C19:C26,Data!D19:D26)/SUM(Data!C19:C26)</f>
+        <v>0.46288946910356832</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.30697620874904064</v>
+      </c>
+      <c r="C7" s="11">
+        <f>SUMPRODUCT(Data!C32:C38,Data!D32:D38)/SUM(Data!C32:C38)</f>
+        <v>0.69302379125095936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C2:C3 C5:C7" formulaRange="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>